--- a/Programming Discription/编码功能表.xlsx
+++ b/Programming Discription/编码功能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="编程界面设计说明" sheetId="2" r:id="rId1"/>
@@ -1265,48 +1265,152 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,108 +1420,6 @@
     <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,8 +1447,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -1917,55 +1917,55 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="132"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="125"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="134"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="136"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="129"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="16" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="101" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="11"/>
@@ -1995,7 +1995,7 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="138"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24">
         <v>0</v>
@@ -2004,36 +2004,36 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="113"/>
     </row>
     <row r="11" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B11" s="138"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
     </row>
     <row r="12" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B12" s="138"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
         <v>67</v>
@@ -2049,7 +2049,7 @@
       <c r="M12" s="31"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B13" s="138"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="11"/>
       <c r="D13" s="20">
         <v>0</v>
@@ -2058,235 +2058,235 @@
       <c r="F13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="105"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B14" s="138"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <v>1</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B15" s="138"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="11"/>
       <c r="D15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142" t="s">
+      <c r="F15" s="108"/>
+      <c r="G15" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="104"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="111"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="138"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24">
         <v>0</v>
       </c>
-      <c r="E16" s="111">
-        <v>0</v>
-      </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="143" t="s">
+      <c r="E16" s="112">
+        <v>0</v>
+      </c>
+      <c r="F16" s="113"/>
+      <c r="G16" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="113"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B17" s="138"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24">
         <v>0</v>
       </c>
-      <c r="E17" s="111">
-        <v>1</v>
-      </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="144">
+      <c r="E17" s="112">
+        <v>1</v>
+      </c>
+      <c r="F17" s="113"/>
+      <c r="G17" s="115">
         <v>-0.24</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="146"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="117"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="138"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="111">
-        <v>0</v>
-      </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="147">
+      <c r="E18" s="112">
+        <v>0</v>
+      </c>
+      <c r="F18" s="113"/>
+      <c r="G18" s="118">
         <v>0.24</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="149"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B19" s="139"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27">
         <v>1</v>
       </c>
-      <c r="E19" s="101">
-        <v>1</v>
-      </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="147">
+      <c r="E19" s="121">
+        <v>1</v>
+      </c>
+      <c r="F19" s="122"/>
+      <c r="G19" s="118">
         <v>-0.12</v>
       </c>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="149"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
     </row>
     <row r="20" spans="2:13" ht="15.75">
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="101" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="116" t="s">
+      <c r="F20" s="111"/>
+      <c r="G20" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="118"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132"/>
     </row>
     <row r="21" spans="2:13" ht="15.75">
-      <c r="B21" s="138"/>
-      <c r="C21" s="119"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="24">
         <v>0</v>
       </c>
-      <c r="E21" s="111">
-        <v>0</v>
-      </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="110" t="s">
+      <c r="E21" s="112">
+        <v>0</v>
+      </c>
+      <c r="F21" s="113"/>
+      <c r="G21" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="113"/>
     </row>
     <row r="22" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B22" s="138"/>
-      <c r="C22" s="120"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="111">
-        <v>1</v>
-      </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113" t="s">
+      <c r="E22" s="112">
+        <v>1</v>
+      </c>
+      <c r="F22" s="113"/>
+      <c r="G22" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="102"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
     </row>
     <row r="23" spans="2:13" ht="15.75">
-      <c r="B23" s="138"/>
-      <c r="C23" s="120"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="111">
-        <v>0</v>
-      </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="110" t="s">
+      <c r="E23" s="112">
+        <v>0</v>
+      </c>
+      <c r="F23" s="113"/>
+      <c r="G23" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
     </row>
     <row r="24" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B24" s="139"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="27">
         <v>1</v>
       </c>
-      <c r="E24" s="101">
-        <v>1</v>
-      </c>
-      <c r="F24" s="102"/>
-      <c r="G24" s="113" t="s">
+      <c r="E24" s="121">
+        <v>1</v>
+      </c>
+      <c r="F24" s="122"/>
+      <c r="G24" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="102"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
     </row>
     <row r="25" spans="2:13" ht="16.5" thickBot="1">
       <c r="B25" s="20"/>
@@ -2331,14 +2331,14 @@
       <c r="G26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="104"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="111"/>
     </row>
     <row r="27" spans="2:13" ht="15.75">
       <c r="B27" s="20"/>
@@ -2357,20 +2357,20 @@
       <c r="G27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="111"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" customHeight="1">
       <c r="B28" s="24">
         <v>3</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="140" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="24">
@@ -2385,18 +2385,18 @@
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="124" t="s">
+      <c r="H28" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="125"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="24"/>
-      <c r="C29" s="126"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="24">
         <v>0</v>
       </c>
@@ -2409,18 +2409,18 @@
       <c r="G29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="123"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="137"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="24"/>
-      <c r="C30" s="126"/>
+      <c r="C30" s="140"/>
       <c r="D30" s="24">
         <v>0</v>
       </c>
@@ -2433,18 +2433,18 @@
       <c r="G30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="114" t="s">
+      <c r="H30" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="115"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="151"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="24"/>
-      <c r="C31" s="126"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="24">
         <v>0</v>
       </c>
@@ -2457,18 +2457,18 @@
       <c r="G31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="124" t="s">
+      <c r="H31" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="125"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="139"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="24"/>
-      <c r="C32" s="126"/>
+      <c r="C32" s="140"/>
       <c r="D32" s="24">
         <v>1</v>
       </c>
@@ -2481,18 +2481,18 @@
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="124" t="s">
+      <c r="H32" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="125"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="139"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="24"/>
-      <c r="C33" s="126"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="24">
         <v>1</v>
       </c>
@@ -2505,18 +2505,18 @@
       <c r="G33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="124" t="s">
+      <c r="H33" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="125"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="139"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="24"/>
-      <c r="C34" s="126"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="24">
         <v>1</v>
       </c>
@@ -2529,18 +2529,18 @@
       <c r="G34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="124" t="s">
+      <c r="H34" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="125"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="139"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1">
       <c r="B35" s="27"/>
-      <c r="C35" s="127"/>
+      <c r="C35" s="141"/>
       <c r="D35" s="27">
         <v>1</v>
       </c>
@@ -2553,14 +2553,14 @@
       <c r="G35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="128">
-        <v>0</v>
-      </c>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="129"/>
+      <c r="H35" s="142">
+        <v>0</v>
+      </c>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="143"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="20"/>
@@ -2572,15 +2572,15 @@
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="103" t="s">
+      <c r="G36" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="104"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="111"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="24">
@@ -2594,15 +2594,15 @@
       <c r="F37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="99" t="s">
+      <c r="G37" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="100"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="145"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1">
       <c r="B38" s="27"/>
@@ -2612,15 +2612,15 @@
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="101" t="s">
+      <c r="G38" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="102"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="122"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="20"/>
@@ -2880,9 +2880,9 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="100"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="145"/>
     </row>
     <row r="52" spans="2:13" ht="15.75" thickBot="1">
       <c r="B52" s="27"/>
@@ -2900,23 +2900,23 @@
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
-      <c r="M52" s="102"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="122"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="109"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="147"/>
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="55" spans="2:13" ht="15.75">
@@ -2932,14 +2932,14 @@
       <c r="E55" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="103" t="s">
+      <c r="F55" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="104"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="111"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="2:13">
@@ -3417,6 +3417,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="B53:M53"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:M7"/>
     <mergeCell ref="B9:B19"/>
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="B20:B24"/>
@@ -3433,41 +3468,6 @@
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G10:M10"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="F55:K55"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="B53:M53"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="H30:M30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3480,7 +3480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD44"/>
     </sheetView>
   </sheetViews>
@@ -3500,7 +3500,7 @@
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="152" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="3"/>
@@ -3516,13 +3516,13 @@
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="160" t="s">
+      <c r="L4" s="100" t="s">
         <v>179</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="151"/>
+      <c r="B5" s="153"/>
       <c r="C5" s="56" t="s">
         <v>121</v>
       </c>
@@ -3544,13 +3544,13 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="100" t="s">
         <v>180</v>
       </c>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="151"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="56" t="s">
         <v>142</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B7" s="152"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="56" t="s">
         <v>122</v>
       </c>
@@ -3626,13 +3626,13 @@
       <c r="I9" s="94"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
-      <c r="L9" s="160" t="s">
+      <c r="L9" s="100" t="s">
         <v>179</v>
       </c>
       <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="152" t="s">
         <v>139</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -3653,13 +3653,13 @@
       <c r="I10" s="69"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="160" t="s">
+      <c r="L10" s="100" t="s">
         <v>181</v>
       </c>
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="151"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="57" t="s">
         <v>138</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B12" s="152"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="57" t="s">
         <v>140</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="M13" s="48"/>
     </row>
     <row r="14" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="152" t="s">
         <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3748,16 +3748,16 @@
       <c r="J14" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="153" t="s">
+      <c r="K14" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="160" t="s">
+      <c r="L14" s="100" t="s">
         <v>179</v>
       </c>
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="151"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="56" t="s">
         <v>141</v>
       </c>
@@ -3782,14 +3782,14 @@
       <c r="J15" s="7">
         <v>0.12356481985392632</v>
       </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="160" t="s">
+      <c r="K15" s="155"/>
+      <c r="L15" s="100" t="s">
         <v>182</v>
       </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B16" s="151"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="56" t="s">
         <v>120</v>
       </c>
@@ -3814,12 +3814,12 @@
       <c r="J16" s="7">
         <v>0.14131607924368628</v>
       </c>
-      <c r="K16" s="153"/>
+      <c r="K16" s="155"/>
       <c r="L16" s="4"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="151"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="56" t="s">
         <v>119</v>
       </c>
@@ -3844,12 +3844,12 @@
       <c r="J17" s="7">
         <v>0.16261534628755939</v>
       </c>
-      <c r="K17" s="153"/>
+      <c r="K17" s="155"/>
       <c r="L17" s="4"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="151"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="56" t="s">
         <v>118</v>
       </c>
@@ -3874,12 +3874,12 @@
       <c r="J18" s="7">
         <v>0.18733922159855385</v>
       </c>
-      <c r="K18" s="153"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="4"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="151"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="56" t="s">
         <v>114</v>
       </c>
@@ -3904,12 +3904,12 @@
       <c r="J19" s="7">
         <v>0.21524820452761606</v>
       </c>
-      <c r="K19" s="153"/>
+      <c r="K19" s="155"/>
       <c r="L19" s="4"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="151"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="56" t="s">
         <v>111</v>
       </c>
@@ -3934,12 +3934,12 @@
       <c r="J20" s="7">
         <v>0.24743302057072233</v>
       </c>
-      <c r="K20" s="153"/>
+      <c r="K20" s="155"/>
       <c r="L20" s="4"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="151"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="56" t="s">
         <v>110</v>
       </c>
@@ -3964,12 +3964,12 @@
       <c r="J21" s="7">
         <v>0.28643028493174377</v>
       </c>
-      <c r="K21" s="153"/>
+      <c r="K21" s="155"/>
       <c r="L21" s="4"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="151"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="56" t="s">
         <v>106</v>
       </c>
@@ -3994,12 +3994,12 @@
       <c r="J22" s="7">
         <v>0.3274329483548904</v>
       </c>
-      <c r="K22" s="153"/>
+      <c r="K22" s="155"/>
       <c r="L22" s="4"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="151"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="56" t="s">
         <v>109</v>
       </c>
@@ -4024,12 +4024,12 @@
       <c r="J23" s="7">
         <v>0.37759370398286846</v>
       </c>
-      <c r="K23" s="153"/>
+      <c r="K23" s="155"/>
       <c r="L23" s="4"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="151"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="56" t="s">
         <v>108</v>
       </c>
@@ -4054,12 +4054,12 @@
       <c r="J24" s="7">
         <v>0.43510272701896319</v>
       </c>
-      <c r="K24" s="153"/>
+      <c r="K24" s="155"/>
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="151"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="56" t="s">
         <v>107</v>
       </c>
@@ -4084,12 +4084,12 @@
       <c r="J25" s="7">
         <v>0.49965471374568576</v>
       </c>
-      <c r="K25" s="153"/>
+      <c r="K25" s="155"/>
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="151"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="56" t="s">
         <v>105</v>
       </c>
@@ -4114,12 +4114,12 @@
       <c r="J26" s="7">
         <v>0.57562181156707293</v>
       </c>
-      <c r="K26" s="153"/>
+      <c r="K26" s="155"/>
       <c r="L26" s="4"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="151"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="56" t="s">
         <v>104</v>
       </c>
@@ -4144,12 +4144,12 @@
       <c r="J27" s="7">
         <v>0.66188042317009843</v>
       </c>
-      <c r="K27" s="153"/>
+      <c r="K27" s="155"/>
       <c r="L27" s="4"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="151"/>
+      <c r="B28" s="153"/>
       <c r="C28" s="56" t="s">
         <v>103</v>
       </c>
@@ -4174,12 +4174,12 @@
       <c r="J28" s="7">
         <v>0.75999842860002031</v>
       </c>
-      <c r="K28" s="153"/>
+      <c r="K28" s="155"/>
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="151"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4204,12 +4204,12 @@
       <c r="J29" s="7">
         <v>0.87537969942050642</v>
       </c>
-      <c r="K29" s="153"/>
+      <c r="K29" s="155"/>
       <c r="L29" s="4"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B30" s="152"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="56" t="s">
         <v>117</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="J30" s="3">
         <v>1</v>
       </c>
-      <c r="K30" s="153"/>
+      <c r="K30" s="155"/>
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
     </row>
@@ -4253,7 +4253,7 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="152" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4275,14 +4275,14 @@
       <c r="I32" s="89"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="160" t="s">
+      <c r="L32" s="100" t="s">
         <v>179</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="151"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="60" t="s">
         <v>142</v>
       </c>
@@ -4302,14 +4302,14 @@
       <c r="I33" s="72"/>
       <c r="J33" s="45"/>
       <c r="K33" s="45"/>
-      <c r="L33" s="160" t="s">
+      <c r="L33" s="100" t="s">
         <v>183</v>
       </c>
       <c r="M33" s="45"/>
       <c r="N33" s="45"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="151"/>
+      <c r="B34" s="153"/>
       <c r="C34" s="58" t="s">
         <v>94</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="N34" s="66"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="151"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="59" t="s">
         <v>95</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="N35" s="45"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="151"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="60" t="s">
         <v>96</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="N36" s="45"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="151"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="60" t="s">
         <v>97</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="N37" s="45"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="151"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="60" t="s">
         <v>98</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="N38" s="45"/>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B39" s="152"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="60" t="s">
         <v>99</v>
       </c>
@@ -4522,7 +4522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4539,7 +4539,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="158" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4549,18 +4549,18 @@
         <v>40</v>
       </c>
       <c r="F3" s="97"/>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="156" t="s">
         <v>116</v>
       </c>
       <c r="H3" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="160" t="s">
+      <c r="K3" s="100" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="1" customFormat="1" ht="15.75">
-      <c r="B4" s="157"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="56" t="s">
         <v>142</v>
       </c>
@@ -4571,19 +4571,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="97"/>
-      <c r="G4" s="154"/>
+      <c r="G4" s="156"/>
       <c r="H4" s="75" t="s">
         <v>156</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="160" t="s">
+      <c r="K4" s="100" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1" ht="15.75">
-      <c r="B5" s="157"/>
+      <c r="B5" s="159"/>
       <c r="C5" s="56" t="s">
         <v>164</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="97"/>
-      <c r="G5" s="154"/>
+      <c r="G5" s="156"/>
       <c r="H5" s="75" t="s">
         <v>150</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1" ht="15.75">
-      <c r="B6" s="157"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="56" t="s">
         <v>165</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="97"/>
-      <c r="G6" s="154"/>
+      <c r="G6" s="156"/>
       <c r="H6" s="75" t="s">
         <v>152</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B7" s="158"/>
+      <c r="B7" s="160"/>
       <c r="C7" s="56" t="s">
         <v>166</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="97"/>
-      <c r="G7" s="154"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="75" t="s">
         <v>148</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="H9" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="160" t="s">
+      <c r="K9" s="100" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4669,13 +4669,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="98"/>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="157" t="s">
         <v>143</v>
       </c>
       <c r="H10" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="160" t="s">
+      <c r="K10" s="100" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="98"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="157"/>
       <c r="H11" s="83" t="s">
         <v>156</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="H13" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="160" t="s">
+      <c r="K13" s="100" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4731,13 +4731,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="98"/>
-      <c r="G14" s="155" t="s">
+      <c r="G14" s="157" t="s">
         <v>143</v>
       </c>
       <c r="H14" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="160" t="s">
+      <c r="K14" s="100" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="98"/>
-      <c r="G15" s="155"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="75" t="s">
         <v>156</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="H16" s="86"/>
     </row>
     <row r="17" spans="2:14" s="1" customFormat="1" ht="15.75">
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="152" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="3"/>
@@ -4774,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="156" t="s">
         <v>116</v>
       </c>
       <c r="H17" s="95" t="s">
@@ -4782,13 +4782,13 @@
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
-      <c r="K17" s="160" t="s">
+      <c r="K17" s="100" t="s">
         <v>179</v>
       </c>
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="2:14" s="1" customFormat="1">
-      <c r="B18" s="151"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="57" t="s">
         <v>142</v>
       </c>
@@ -4799,19 +4799,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="154"/>
+      <c r="G18" s="156"/>
       <c r="H18" s="79" t="s">
         <v>156</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="160" t="s">
+      <c r="K18" s="100" t="s">
         <v>188</v>
       </c>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B19" s="151"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="57" t="s">
         <v>169</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="154"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="79" t="s">
         <v>160</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B20" s="151"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="57" t="s">
         <v>168</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="154"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="79" t="s">
         <v>157</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="152"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="57" t="s">
         <v>167</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="154"/>
+      <c r="G21" s="156"/>
       <c r="H21" s="87" t="s">
         <v>161</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>173</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="154" t="s">
+      <c r="G23" s="156" t="s">
         <v>116</v>
       </c>
       <c r="H23" s="88" t="s">
@@ -4890,14 +4890,14 @@
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="160" t="s">
+      <c r="K23" s="100" t="s">
         <v>179</v>
       </c>
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
     </row>
     <row r="24" spans="2:14" s="1" customFormat="1">
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="152" t="s">
         <v>170</v>
       </c>
       <c r="C24" s="60" t="s">
@@ -4909,16 +4909,16 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="154"/>
-      <c r="H24" s="159" t="s">
+      <c r="G24" s="156"/>
+      <c r="H24" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="160" t="s">
+      <c r="K24" s="100" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="1" customFormat="1">
-      <c r="B25" s="151"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="60" t="s">
         <v>177</v>
       </c>
@@ -4928,13 +4928,13 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="154"/>
-      <c r="H25" s="159" t="s">
+      <c r="G25" s="156"/>
+      <c r="H25" s="99" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="1" customFormat="1">
-      <c r="B26" s="151"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="60" t="s">
         <v>178</v>
       </c>
@@ -4944,13 +4944,13 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="154"/>
-      <c r="H26" s="159" t="s">
+      <c r="G26" s="156"/>
+      <c r="H26" s="99" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="G27" s="154"/>
+      <c r="G27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Programming Discription/编码功能表.xlsx
+++ b/Programming Discription/编码功能表.xlsx
@@ -1267,6 +1267,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1276,15 +1390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1294,18 +1399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1325,99 +1418,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,55 +1917,55 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="125"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="134"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="136"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="129"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="16" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="139" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="11"/>
@@ -1995,7 +1995,7 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="102"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24">
         <v>0</v>
@@ -2004,36 +2004,36 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="114"/>
     </row>
     <row r="11" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B11" s="102"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="105"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="108"/>
     </row>
     <row r="12" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B12" s="102"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
         <v>67</v>
@@ -2049,7 +2049,7 @@
       <c r="M12" s="31"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B13" s="102"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="11"/>
       <c r="D13" s="20">
         <v>0</v>
@@ -2058,235 +2058,235 @@
       <c r="F13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="105"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B14" s="102"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <v>1</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B15" s="102"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="11"/>
       <c r="D15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109" t="s">
+      <c r="F15" s="143"/>
+      <c r="G15" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="102"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24">
         <v>0</v>
       </c>
-      <c r="E16" s="112">
-        <v>0</v>
-      </c>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114" t="s">
+      <c r="E16" s="113">
+        <v>0</v>
+      </c>
+      <c r="F16" s="114"/>
+      <c r="G16" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="114"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B17" s="102"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24">
         <v>0</v>
       </c>
-      <c r="E17" s="112">
-        <v>1</v>
-      </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="115">
+      <c r="E17" s="113">
+        <v>1</v>
+      </c>
+      <c r="F17" s="114"/>
+      <c r="G17" s="146">
         <v>-0.24</v>
       </c>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="117"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="148"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="102"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="112">
-        <v>0</v>
-      </c>
-      <c r="F18" s="113"/>
-      <c r="G18" s="118">
+      <c r="E18" s="113">
+        <v>0</v>
+      </c>
+      <c r="F18" s="114"/>
+      <c r="G18" s="149">
         <v>0.24</v>
       </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="151"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B19" s="103"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27">
         <v>1</v>
       </c>
-      <c r="E19" s="121">
-        <v>1</v>
-      </c>
-      <c r="F19" s="122"/>
-      <c r="G19" s="118">
+      <c r="E19" s="103">
+        <v>1</v>
+      </c>
+      <c r="F19" s="104"/>
+      <c r="G19" s="149">
         <v>-0.12</v>
       </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="151"/>
     </row>
     <row r="20" spans="2:13" ht="15.75">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="139" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="130" t="s">
+      <c r="F20" s="106"/>
+      <c r="G20" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="2:13" ht="15.75">
-      <c r="B21" s="102"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="24">
         <v>0</v>
       </c>
-      <c r="E21" s="112">
-        <v>0</v>
-      </c>
-      <c r="F21" s="113"/>
-      <c r="G21" s="148" t="s">
+      <c r="E21" s="113">
+        <v>0</v>
+      </c>
+      <c r="F21" s="114"/>
+      <c r="G21" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="114"/>
     </row>
     <row r="22" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B22" s="102"/>
-      <c r="C22" s="134"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="112">
-        <v>1</v>
-      </c>
-      <c r="F22" s="113"/>
-      <c r="G22" s="149" t="s">
+      <c r="E22" s="113">
+        <v>1</v>
+      </c>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="104"/>
     </row>
     <row r="23" spans="2:13" ht="15.75">
-      <c r="B23" s="102"/>
-      <c r="C23" s="134"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="112">
-        <v>0</v>
-      </c>
-      <c r="F23" s="113"/>
-      <c r="G23" s="148" t="s">
+      <c r="E23" s="113">
+        <v>0</v>
+      </c>
+      <c r="F23" s="114"/>
+      <c r="G23" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="114"/>
     </row>
     <row r="24" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B24" s="103"/>
-      <c r="C24" s="135"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="27">
         <v>1</v>
       </c>
-      <c r="E24" s="121">
-        <v>1</v>
-      </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="149" t="s">
+      <c r="E24" s="103">
+        <v>1</v>
+      </c>
+      <c r="F24" s="104"/>
+      <c r="G24" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="104"/>
     </row>
     <row r="25" spans="2:13" ht="16.5" thickBot="1">
       <c r="B25" s="20"/>
@@ -2331,14 +2331,14 @@
       <c r="G26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
     </row>
     <row r="27" spans="2:13" ht="15.75">
       <c r="B27" s="20"/>
@@ -2357,20 +2357,20 @@
       <c r="G27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="110" t="s">
+      <c r="H27" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="111"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" customHeight="1">
       <c r="B28" s="24">
         <v>3</v>
       </c>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="128" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="24">
@@ -2385,18 +2385,18 @@
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="138" t="s">
+      <c r="H28" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="139"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="127"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="24"/>
-      <c r="C29" s="140"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="24">
         <v>0</v>
       </c>
@@ -2409,18 +2409,18 @@
       <c r="G29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="136" t="s">
+      <c r="H29" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="137"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="125"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="24"/>
-      <c r="C30" s="140"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="24">
         <v>0</v>
       </c>
@@ -2433,18 +2433,18 @@
       <c r="G30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="150" t="s">
+      <c r="H30" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="151"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="117"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="24"/>
-      <c r="C31" s="140"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="24">
         <v>0</v>
       </c>
@@ -2457,18 +2457,18 @@
       <c r="G31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="138" t="s">
+      <c r="H31" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="139"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="127"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="24"/>
-      <c r="C32" s="140"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="24">
         <v>1</v>
       </c>
@@ -2481,18 +2481,18 @@
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="138" t="s">
+      <c r="H32" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="139"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="127"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="24"/>
-      <c r="C33" s="140"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="24">
         <v>1</v>
       </c>
@@ -2505,18 +2505,18 @@
       <c r="G33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="138" t="s">
+      <c r="H33" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="138"/>
-      <c r="J33" s="138"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="139"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="127"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="24"/>
-      <c r="C34" s="140"/>
+      <c r="C34" s="128"/>
       <c r="D34" s="24">
         <v>1</v>
       </c>
@@ -2529,18 +2529,18 @@
       <c r="G34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="138" t="s">
+      <c r="H34" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="139"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="127"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1">
       <c r="B35" s="27"/>
-      <c r="C35" s="141"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="27">
         <v>1</v>
       </c>
@@ -2553,14 +2553,14 @@
       <c r="G35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="142">
-        <v>0</v>
-      </c>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="142"/>
-      <c r="M35" s="143"/>
+      <c r="H35" s="130">
+        <v>0</v>
+      </c>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="131"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="20"/>
@@ -2572,15 +2572,15 @@
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="111"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="106"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="24">
@@ -2594,15 +2594,15 @@
       <c r="F37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="144" t="s">
+      <c r="G37" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="145"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="102"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1">
       <c r="B38" s="27"/>
@@ -2612,15 +2612,15 @@
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="121" t="s">
+      <c r="G38" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="122"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="104"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="20"/>
@@ -2880,9 +2880,9 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="145"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="102"/>
     </row>
     <row r="52" spans="2:13" ht="15.75" thickBot="1">
       <c r="B52" s="27"/>
@@ -2900,23 +2900,23 @@
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
-      <c r="K52" s="121"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="122"/>
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="104"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B53" s="146"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="147"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="111"/>
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="55" spans="2:13" ht="15.75">
@@ -2932,14 +2932,14 @@
       <c r="E55" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="110" t="s">
+      <c r="F55" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="111"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="106"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="2:13">
@@ -3417,6 +3417,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H31:M31"/>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
     <mergeCell ref="F55:K55"/>
@@ -3433,41 +3468,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:M24"/>
     <mergeCell ref="H30:M30"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G10:M10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,7 +3481,7 @@
   <dimension ref="B3:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD44"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4328,7 +4328,9 @@
       </c>
       <c r="I34" s="73"/>
       <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
+      <c r="K34" s="66">
+        <v>0</v>
+      </c>
       <c r="L34" s="66"/>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
